--- a/documents/Calculations.xlsx
+++ b/documents/Calculations.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atjmai\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5BC6A-7D39-452C-8EC4-760C0A69E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174C8984-5192-4414-9934-2B2C8F5BA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="0" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AC966440-6E5A-4D77-863E-6984AD637B11}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" firstSheet="3" activeTab="6" xr2:uid="{AC966440-6E5A-4D77-863E-6984AD637B11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 8" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 8 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 6" sheetId="3" r:id="rId2"/>
+    <sheet name="Table 7" sheetId="4" r:id="rId3"/>
+    <sheet name="Table 8" sheetId="5" r:id="rId4"/>
+    <sheet name="Table 9" sheetId="6" r:id="rId5"/>
+    <sheet name="Table 10" sheetId="7" r:id="rId6"/>
+    <sheet name="Table 11" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>In terms of managing NONESCOST Alumni’s data.</t>
   </si>
@@ -83,12 +77,42 @@
   <si>
     <t>Portability</t>
   </si>
+  <si>
+    <t>In terms of integrating AI using Job Matching Algorithm to provide personalized job recommendations.</t>
+  </si>
+  <si>
+    <t>The system can recommend best jobs for alumni</t>
+  </si>
+  <si>
+    <t>The system can recommend best candidates for the job</t>
+  </si>
+  <si>
+    <t>In terms of integrating AI using Natural Language Processing (NLP) Algorithm to analyze text and providing suggestions.</t>
+  </si>
+  <si>
+    <t>The system can analyze text</t>
+  </si>
+  <si>
+    <t>The system can provide text suggestions</t>
+  </si>
+  <si>
+    <t>In terms of generating an Alumni Report</t>
+  </si>
+  <si>
+    <t>The system can generate alumni report per batch</t>
+  </si>
+  <si>
+    <t>The system can generate alumni report per college</t>
+  </si>
+  <si>
+    <t>The system can generate alumni report per course</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +130,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -160,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,9 +199,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,6 +207,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BF5BBD-350F-4297-AF6B-FB0762AAEEFA}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,26 +546,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -885,11 +919,1173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73853E54-C5BA-4548-929B-32DC9B39E1E1}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(B3:Q3)</f>
+        <v>4.5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4" si="0">AVERAGE(B4:Q4)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f>AVERAGE(R3:R4)</f>
+        <v>4.53125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1441C3CC-A1C6-413D-897D-0124843F2981}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(B3:Q3)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4" si="0">AVERAGE(B4:Q4)</f>
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f>AVERAGE(R3:R4)</f>
+        <v>4.5625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB9598-5AD2-4764-8597-BF54C0432F99}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(B3:Q3)</f>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R5" si="0">AVERAGE(B4:Q4)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f>AVERAGE(R3:R5)</f>
+        <v>4.5625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0754D370-AAE2-42BA-ACC3-455E6B33D41A}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R4" si="0">AVERAGE(B3:Q3)</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f>AVERAGE(R3:R4)</f>
+        <v>4.78125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFB4241-4F96-4F40-8C79-A3F28A89516F}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R4" si="0">AVERAGE(B3:Q3)</f>
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f>AVERAGE(R3:R4)</f>
+        <v>4.84375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7CC630-0C94-49A8-9269-66E438B9D5DC}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,531 +2098,531 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
         <v>6</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>7</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>9</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>10</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>11</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>12</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>13</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>14</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>15</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>16</v>
       </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6">
-        <v>5</v>
-      </c>
-      <c r="L3" s="6">
-        <v>5</v>
-      </c>
-      <c r="M3" s="6">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6">
-        <v>5</v>
-      </c>
-      <c r="O3" s="6">
-        <v>5</v>
-      </c>
-      <c r="P3" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>5</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5</v>
+      </c>
+      <c r="R3" s="5">
         <f>AVERAGE(B3:Q3)</f>
         <v>4.6875</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5">
+        <f>AVERAGE(B4:Q4)</f>
+        <v>4.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5">
+        <f>AVERAGE(B5:Q5)</f>
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5">
+        <f>AVERAGE(B6:Q6)</f>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5</v>
-      </c>
-      <c r="L4" s="6">
-        <v>4</v>
-      </c>
-      <c r="M4" s="6">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6">
-        <v>5</v>
-      </c>
-      <c r="O4" s="6">
-        <v>4</v>
-      </c>
-      <c r="P4" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>5</v>
-      </c>
-      <c r="R4" s="6">
-        <f t="shared" ref="R4:R10" si="0">AVERAGE(B4:Q4)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6">
-        <v>5</v>
-      </c>
-      <c r="L5" s="6">
-        <v>4</v>
-      </c>
-      <c r="M5" s="6">
-        <v>4</v>
-      </c>
-      <c r="N5" s="6">
-        <v>5</v>
-      </c>
-      <c r="O5" s="6">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>5</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" si="0"/>
-        <v>4.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6">
-        <v>5</v>
-      </c>
-      <c r="L6" s="6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="6">
-        <v>4</v>
-      </c>
-      <c r="N6" s="6">
-        <v>5</v>
-      </c>
-      <c r="O6" s="6">
-        <v>4</v>
-      </c>
-      <c r="P6" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>4</v>
-      </c>
-      <c r="R6" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6">
-        <v>5</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="6">
-        <v>5</v>
-      </c>
-      <c r="M7" s="6">
-        <v>5</v>
-      </c>
-      <c r="N7" s="6">
-        <v>4</v>
-      </c>
-      <c r="O7" s="6">
-        <v>5</v>
-      </c>
-      <c r="P7" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>5</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5">
+        <v>5</v>
+      </c>
+      <c r="P7" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" ref="R7:R10" si="0">AVERAGE(B7:Q7)</f>
+        <v>4.8125</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6">
-        <v>5</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="6">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>5</v>
-      </c>
-      <c r="O8" s="6">
-        <v>5</v>
-      </c>
-      <c r="P8" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>5</v>
-      </c>
-      <c r="R8" s="6">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="0"/>
         <v>4.8125</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6">
-        <v>5</v>
-      </c>
-      <c r="I9" s="6">
-        <v>5</v>
-      </c>
-      <c r="J9" s="6">
-        <v>5</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5</v>
-      </c>
-      <c r="L9" s="6">
-        <v>5</v>
-      </c>
-      <c r="M9" s="6">
-        <v>4</v>
-      </c>
-      <c r="N9" s="6">
-        <v>5</v>
-      </c>
-      <c r="O9" s="6">
-        <v>5</v>
-      </c>
-      <c r="P9" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>5</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>5</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>4.8125</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>4</v>
-      </c>
-      <c r="L10" s="6">
-        <v>5</v>
-      </c>
-      <c r="M10" s="6">
-        <v>5</v>
-      </c>
-      <c r="N10" s="6">
-        <v>5</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-      <c r="P10" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>5</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>5</v>
+      </c>
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>4.4375</v>
       </c>
@@ -1434,7 +2630,7 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R11">
         <f>AVERAGE(R3:R10)</f>
-        <v>4.59375</v>
+        <v>4.6875</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Calculations.xlsx
+++ b/documents/Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atjmai\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174C8984-5192-4414-9934-2B2C8F5BA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8144B-94B3-4A0D-BCB7-82DE74EFA6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" firstSheet="3" activeTab="6" xr2:uid="{AC966440-6E5A-4D77-863E-6984AD637B11}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{AC966440-6E5A-4D77-863E-6984AD637B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 5" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <sheet name="Table 10" sheetId="7" r:id="rId6"/>
     <sheet name="Table 11" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -207,13 +218,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,26 +557,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -938,26 +949,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1159,26 +1170,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1380,26 +1391,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1658,26 +1669,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1879,26 +1890,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2082,44 +2093,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7CC630-0C94-49A8-9269-66E438B9D5DC}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -2130,108 +2126,30 @@
       <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <f>AVERAGE(B3:D3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>16</v>
-      </c>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5">
-        <v>5</v>
-      </c>
-      <c r="L3" s="5">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5">
-        <v>5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>5</v>
-      </c>
-      <c r="P3" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>5</v>
-      </c>
-      <c r="R3" s="5">
-        <f>AVERAGE(B3:Q3)</f>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
@@ -2239,58 +2157,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5">
-        <v>5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4</v>
-      </c>
-      <c r="P4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>5</v>
-      </c>
-      <c r="R4" s="5">
-        <f>AVERAGE(B4:Q4)</f>
-        <v>4.4375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B4:D4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -2299,107 +2178,29 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>5</v>
-      </c>
-      <c r="O5" s="5">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>5</v>
-      </c>
-      <c r="R5" s="5">
-        <f>AVERAGE(B5:Q5)</f>
-        <v>4.8125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+        <f>AVERAGE(B5:D5)</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5">
-        <v>5</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5">
-        <v>5</v>
-      </c>
-      <c r="P6" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>4</v>
-      </c>
-      <c r="R6" s="5">
-        <f>AVERAGE(B6:Q6)</f>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B6:D6)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2407,113 +2208,35 @@
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5</v>
-      </c>
-      <c r="M7" s="5">
-        <v>5</v>
-      </c>
-      <c r="N7" s="5">
-        <v>5</v>
-      </c>
-      <c r="O7" s="5">
-        <v>5</v>
-      </c>
-      <c r="P7" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>5</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" ref="R7:R10" si="0">AVERAGE(B7:Q7)</f>
-        <v>4.8125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B7:D7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5">
-        <v>5</v>
-      </c>
-      <c r="M8" s="5">
-        <v>5</v>
-      </c>
-      <c r="N8" s="5">
-        <v>5</v>
-      </c>
-      <c r="O8" s="5">
-        <v>5</v>
-      </c>
-      <c r="P8" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>5</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B8:D8)</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2527,115 +2250,37 @@
         <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5">
-        <v>4</v>
-      </c>
-      <c r="N9" s="5">
-        <v>5</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>5</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+        <f>AVERAGE(B9:D9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5">
-        <v>5</v>
-      </c>
-      <c r="M10" s="5">
-        <v>5</v>
-      </c>
-      <c r="N10" s="5">
-        <v>5</v>
-      </c>
-      <c r="O10" s="5">
-        <v>5</v>
-      </c>
-      <c r="P10" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>5</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="0"/>
-        <v>4.4375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R11">
-        <f>AVERAGE(R3:R10)</f>
-        <v>4.6875</v>
+        <f>AVERAGE(B10:D10)</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>AVERAGE(E3:E10)</f>
+        <v>4.791666666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documents/Calculations.xlsx
+++ b/documents/Calculations.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atjmai\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC8144B-94B3-4A0D-BCB7-82DE74EFA6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C8B79-00B3-46D9-8028-F1056730FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{AC966440-6E5A-4D77-863E-6984AD637B11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{AC966440-6E5A-4D77-863E-6984AD637B11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 5" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 6" sheetId="3" r:id="rId2"/>
-    <sheet name="Table 7" sheetId="4" r:id="rId3"/>
-    <sheet name="Table 8" sheetId="5" r:id="rId4"/>
-    <sheet name="Table 9" sheetId="6" r:id="rId5"/>
-    <sheet name="Table 10" sheetId="7" r:id="rId6"/>
-    <sheet name="Table 11" sheetId="2" r:id="rId7"/>
+    <sheet name="Table - 9" sheetId="1" r:id="rId1"/>
+    <sheet name="Table - 10" sheetId="8" r:id="rId2"/>
+    <sheet name="Table - 11" sheetId="9" r:id="rId3"/>
+    <sheet name="Table - 12" sheetId="10" r:id="rId4"/>
+    <sheet name="Table 6" sheetId="3" r:id="rId5"/>
+    <sheet name="Table 7" sheetId="4" r:id="rId6"/>
+    <sheet name="Table 8" sheetId="5" r:id="rId7"/>
+    <sheet name="Table 9" sheetId="6" r:id="rId8"/>
+    <sheet name="Table 10" sheetId="7" r:id="rId9"/>
+    <sheet name="Table 11" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>In terms of managing NONESCOST Alumni’s data.</t>
   </si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>The system can manage alumni’s skills assessment</t>
-  </si>
-  <si>
-    <t>The system can manage alumni’s job preferences</t>
   </si>
   <si>
     <t xml:space="preserve">In terms of the characteristics set in ISO 25010 Software Quality Model </t>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +224,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BF5BBD-350F-4297-AF6B-FB0762AAEEFA}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,13 +553,15 @@
     <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="3" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -577,8 +582,12 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>1</v>
@@ -628,8 +637,20 @@
       <c r="Q2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -649,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -679,14 +700,26 @@
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <f>AVERAGE(B3:Q3)</f>
-        <v>4.5625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(B3:U3)</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -697,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -706,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -730,20 +763,32 @@
         <v>5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R7" si="0">AVERAGE(B4:Q4)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V7" si="0">AVERAGE(B4:U4)</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -787,20 +832,32 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="0"/>
-        <v>4.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -847,20 +904,30 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="0"/>
-        <v>4.5625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>4</v>
       </c>
@@ -868,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -877,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -886,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -898,31 +965,239 @@
         <v>5</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>4</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R8">
-        <f>AVERAGE(R3:R7)</f>
-        <v>4.5125000000000002</v>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <f>AVERAGE(V3:V7)</f>
+        <v>4.3600000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7CC630-0C94-49A8-9269-66E438B9D5DC}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E10" si="0">AVERAGE(B3:D3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>AVERAGE(E3:E10)</f>
+        <v>4.791666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -930,6 +1205,1264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE90355D-B9E2-4517-87C3-A53ADBA67D35}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="3" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(B3:U3)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4" si="0">AVERAGE(B4:U4)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f>AVERAGE(V3:V4)</f>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2449DB5-0E97-4DEF-8038-DD8E4AE7DDFF}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="3" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(B3:U3)</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4" si="0">AVERAGE(B4:U4)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f>AVERAGE(V3:V4)</f>
+        <v>4.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE10591-A70C-489C-8A46-E1BDE93B84E4}">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="3" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(B3:U3)</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V10" si="0">AVERAGE(B4:U4)</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11" si="1">AVERAGE(B11:U11)</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <f>AVERAGE(V3:V11)</f>
+        <v>4.2055555555555557</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73853E54-C5BA-4548-929B-32DC9B39E1E1}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -950,7 +2483,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1023,7 +2556,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1080,7 +2613,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1150,11 +2683,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1441C3CC-A1C6-413D-897D-0124843F2981}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +2704,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1244,7 +2777,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1301,7 +2834,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1371,12 +2904,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB9598-5AD2-4764-8597-BF54C0432F99}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1465,7 +2998,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1522,7 +3055,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1573,13 +3106,13 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R5" si="0">AVERAGE(B4:Q4)</f>
+        <f>AVERAGE(B4:Q4)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1630,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B5:Q5)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -1649,7 +3182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0754D370-AAE2-42BA-ACC3-455E6B33D41A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -1670,7 +3203,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1743,7 +3276,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1800,7 +3333,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1870,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFB4241-4F96-4F40-8C79-A3F28A89516F}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -1891,7 +3424,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1964,7 +3497,7 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2021,7 +3554,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2089,200 +3622,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7CC630-0C94-49A8-9269-66E438B9D5DC}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <f>AVERAGE(B3:D3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
-        <f>AVERAGE(B4:D4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <f>AVERAGE(B5:D5)</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <f>AVERAGE(B6:D6)</f>
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <f>AVERAGE(B7:D7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <f>AVERAGE(B8:D8)</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
-        <f>AVERAGE(B9:D9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <f>AVERAGE(B10:D10)</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <f>AVERAGE(E3:E10)</f>
-        <v>4.791666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>